--- a/Customer Invoice Conversion Data - RAW File.xlsx
+++ b/Customer Invoice Conversion Data - RAW File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SohamKasurde\Conversion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7306C2A3-4B97-4FC1-A88C-B56A36A1F5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE07AD2E-ED3E-4F7E-A84F-253EF288BB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -679,9 +679,6 @@
     <t>850 Miter Shared Services BU</t>
   </si>
   <si>
-    <t>MILGARD SPREADSHEET</t>
-  </si>
-  <si>
     <t>105 Invoice</t>
   </si>
   <si>
@@ -761,6 +758,9 @@
   </si>
   <si>
     <t>*Transaction Batch Source Name</t>
+  </si>
+  <si>
+    <t>MILGARD EBS SPREADSHEET</t>
   </si>
 </sst>
 </file>
@@ -1199,62 +1199,62 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1338,45 +1338,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3">
+        <v>45748</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45748</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3">
-        <v>45748</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45748</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="3">
         <v>45832</v>
@@ -1394,13 +1394,13 @@
         <v>1000</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V3" s="7">
         <v>567894</v>
@@ -1418,7 +1418,7 @@
         <v>42678</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1427,19 +1427,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="3">
         <v>45748</v>
       </c>
@@ -1447,25 +1447,25 @@
         <v>45748</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
       </c>
       <c r="N4" s="3">
         <v>45832</v>
@@ -1483,13 +1483,13 @@
         <v>1100</v>
       </c>
       <c r="S4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V4" s="7">
         <v>567895</v>
@@ -1507,7 +1507,7 @@
         <v>42678</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="7">
         <v>1</v>
@@ -1516,19 +1516,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="3">
         <v>45748</v>
       </c>
@@ -1536,25 +1536,25 @@
         <v>45748</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
       </c>
       <c r="N5" s="3">
         <v>45832</v>
@@ -1572,13 +1572,13 @@
         <v>13000</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V5" s="7">
         <v>567896</v>
@@ -1596,7 +1596,7 @@
         <v>42678</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1605,19 +1605,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="3">
         <v>45748</v>
       </c>
@@ -1625,25 +1625,25 @@
         <v>45748</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
       </c>
       <c r="N6" s="3">
         <v>45832</v>
@@ -1661,13 +1661,13 @@
         <v>24900</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V6" s="7">
         <v>567897</v>
@@ -1685,7 +1685,7 @@
         <v>42678</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB6" s="7">
         <v>1</v>
@@ -1694,19 +1694,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="3">
         <v>45748</v>
       </c>
@@ -1714,25 +1714,25 @@
         <v>45748</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
       </c>
       <c r="N7" s="3">
         <v>45832</v>
@@ -1750,13 +1750,13 @@
         <v>36800</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V7" s="7">
         <v>567898</v>
@@ -1774,7 +1774,7 @@
         <v>42678</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1783,19 +1783,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="3">
         <v>45748</v>
       </c>
@@ -1803,25 +1803,25 @@
         <v>45748</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
       </c>
       <c r="N8" s="3">
         <v>45832</v>
@@ -1839,13 +1839,13 @@
         <v>48700</v>
       </c>
       <c r="S8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V8" s="7">
         <v>567899</v>
@@ -1863,7 +1863,7 @@
         <v>42678</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB8" s="7">
         <v>1</v>
@@ -1872,19 +1872,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="3">
         <v>45748</v>
       </c>
@@ -1892,25 +1892,25 @@
         <v>45748</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>36</v>
-      </c>
-      <c r="M9" t="s">
-        <v>37</v>
       </c>
       <c r="N9" s="3">
         <v>45832</v>
@@ -1928,13 +1928,13 @@
         <v>60600</v>
       </c>
       <c r="S9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V9" s="7">
         <v>567900</v>
@@ -1952,7 +1952,7 @@
         <v>42678</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1961,19 +1961,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="3">
         <v>45748</v>
       </c>
@@ -1981,25 +1981,25 @@
         <v>45748</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" t="s">
         <v>33</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>34</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
-      </c>
-      <c r="M10" t="s">
-        <v>37</v>
       </c>
       <c r="N10" s="3">
         <v>45832</v>
@@ -2017,13 +2017,13 @@
         <v>72500</v>
       </c>
       <c r="S10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V10" s="7">
         <v>567901</v>
@@ -2041,7 +2041,7 @@
         <v>42678</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB10" s="7">
         <v>1</v>
@@ -2050,19 +2050,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="3">
         <v>45748</v>
       </c>
@@ -2070,25 +2070,25 @@
         <v>45748</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>36</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
       </c>
       <c r="N11" s="3">
         <v>45832</v>
@@ -2106,13 +2106,13 @@
         <v>84400</v>
       </c>
       <c r="S11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V11" s="7">
         <v>567902</v>
@@ -2130,7 +2130,7 @@
         <v>42678</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -2139,19 +2139,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="3">
         <v>45748</v>
       </c>
@@ -2159,25 +2159,25 @@
         <v>45748</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>36</v>
-      </c>
-      <c r="M12" t="s">
-        <v>37</v>
       </c>
       <c r="N12" s="3">
         <v>45832</v>
@@ -2195,13 +2195,13 @@
         <v>96300</v>
       </c>
       <c r="S12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V12" s="7">
         <v>567903</v>
@@ -2219,7 +2219,7 @@
         <v>42678</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB12" s="7">
         <v>1</v>
@@ -2228,19 +2228,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="3">
         <v>45748</v>
       </c>
@@ -2248,25 +2248,25 @@
         <v>45748</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" t="s">
         <v>33</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>34</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>37</v>
       </c>
       <c r="N13" s="3">
         <v>45832</v>
@@ -2284,13 +2284,13 @@
         <v>108200</v>
       </c>
       <c r="S13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V13" s="7">
         <v>567904</v>
@@ -2308,7 +2308,7 @@
         <v>42678</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -2317,19 +2317,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" s="3">
         <v>45748</v>
       </c>
@@ -2337,25 +2337,25 @@
         <v>45748</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>34</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>36</v>
-      </c>
-      <c r="M14" t="s">
-        <v>37</v>
       </c>
       <c r="N14" s="3">
         <v>45832</v>
@@ -2373,13 +2373,13 @@
         <v>120100</v>
       </c>
       <c r="S14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V14" s="7">
         <v>567905</v>
@@ -2397,7 +2397,7 @@
         <v>42678</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB14" s="7">
         <v>1</v>
@@ -2406,19 +2406,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="3">
         <v>45748</v>
       </c>
@@ -2426,25 +2426,25 @@
         <v>45748</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>34</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>35</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>36</v>
-      </c>
-      <c r="M15" t="s">
-        <v>37</v>
       </c>
       <c r="N15" s="3">
         <v>45832</v>
@@ -2462,13 +2462,13 @@
         <v>132000</v>
       </c>
       <c r="S15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V15" s="7">
         <v>567906</v>
@@ -2486,7 +2486,7 @@
         <v>42678</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -2495,19 +2495,19 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" s="3">
         <v>45748</v>
       </c>
@@ -2515,25 +2515,25 @@
         <v>45748</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" t="s">
         <v>33</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>34</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
       </c>
       <c r="N16" s="3">
         <v>45832</v>
@@ -2551,13 +2551,13 @@
         <v>143900</v>
       </c>
       <c r="S16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="V16" s="7">
         <v>567907</v>
@@ -2575,7 +2575,7 @@
         <v>42678</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB16" s="7">
         <v>1</v>

--- a/Customer Invoice Conversion Data - RAW File.xlsx
+++ b/Customer Invoice Conversion Data - RAW File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE07AD2E-ED3E-4F7E-A84F-253EF288BB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894A7A69-218C-437F-99C5-8466A460E11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
   </bookViews>
@@ -682,9 +682,6 @@
     <t>105 Invoice</t>
   </si>
   <si>
-    <t>30 Net</t>
-  </si>
-  <si>
     <t>INV1009</t>
   </si>
   <si>
@@ -761,6 +758,9 @@
   </si>
   <si>
     <t>MILGARD EBS SPREADSHEET</t>
+  </si>
+  <si>
+    <t>NET 30</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1209,7 +1209,7 @@
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.90625" customWidth="1"/>
     <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.1796875" bestFit="1" customWidth="1"/>
@@ -1228,33 +1228,33 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1343,40 +1343,40 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45848</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3">
-        <v>45748</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45748</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
       </c>
       <c r="N3" s="3">
         <v>45832</v>
@@ -1394,13 +1394,13 @@
         <v>1000</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V3" s="7">
         <v>567894</v>
@@ -1418,7 +1418,7 @@
         <v>42678</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1432,40 +1432,40 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F4" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
       </c>
       <c r="N4" s="3">
         <v>45832</v>
@@ -1483,13 +1483,13 @@
         <v>1100</v>
       </c>
       <c r="S4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V4" s="7">
         <v>567895</v>
@@ -1507,7 +1507,7 @@
         <v>42678</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="7">
         <v>1</v>
@@ -1521,40 +1521,40 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F5" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
       </c>
       <c r="N5" s="3">
         <v>45832</v>
@@ -1572,13 +1572,13 @@
         <v>13000</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V5" s="7">
         <v>567896</v>
@@ -1596,7 +1596,7 @@
         <v>42678</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1610,40 +1610,40 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F6" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
       </c>
       <c r="N6" s="3">
         <v>45832</v>
@@ -1661,13 +1661,13 @@
         <v>24900</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V6" s="7">
         <v>567897</v>
@@ -1685,7 +1685,7 @@
         <v>42678</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB6" s="7">
         <v>1</v>
@@ -1699,40 +1699,40 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F7" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
       </c>
       <c r="N7" s="3">
         <v>45832</v>
@@ -1750,13 +1750,13 @@
         <v>36800</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V7" s="7">
         <v>567898</v>
@@ -1774,7 +1774,7 @@
         <v>42678</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1788,40 +1788,40 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F8" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
       </c>
       <c r="N8" s="3">
         <v>45832</v>
@@ -1839,13 +1839,13 @@
         <v>48700</v>
       </c>
       <c r="S8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V8" s="7">
         <v>567899</v>
@@ -1863,7 +1863,7 @@
         <v>42678</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB8" s="7">
         <v>1</v>
@@ -1877,40 +1877,40 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F9" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>34</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
       </c>
       <c r="N9" s="3">
         <v>45832</v>
@@ -1928,13 +1928,13 @@
         <v>60600</v>
       </c>
       <c r="S9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V9" s="7">
         <v>567900</v>
@@ -1952,7 +1952,7 @@
         <v>42678</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1966,40 +1966,40 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F10" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" t="s">
         <v>32</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>34</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>35</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
       </c>
       <c r="N10" s="3">
         <v>45832</v>
@@ -2017,13 +2017,13 @@
         <v>72500</v>
       </c>
       <c r="S10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V10" s="7">
         <v>567901</v>
@@ -2041,7 +2041,7 @@
         <v>42678</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" s="7">
         <v>1</v>
@@ -2055,40 +2055,40 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F11" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" t="s">
         <v>32</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>34</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
       </c>
       <c r="N11" s="3">
         <v>45832</v>
@@ -2106,13 +2106,13 @@
         <v>84400</v>
       </c>
       <c r="S11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V11" s="7">
         <v>567902</v>
@@ -2130,7 +2130,7 @@
         <v>42678</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -2144,40 +2144,40 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F12" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" t="s">
         <v>32</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>33</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>34</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
       </c>
       <c r="N12" s="3">
         <v>45832</v>
@@ -2195,13 +2195,13 @@
         <v>96300</v>
       </c>
       <c r="S12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V12" s="7">
         <v>567903</v>
@@ -2219,7 +2219,7 @@
         <v>42678</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB12" s="7">
         <v>1</v>
@@ -2233,40 +2233,40 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F13" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" t="s">
         <v>32</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>33</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>34</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
       </c>
       <c r="N13" s="3">
         <v>45832</v>
@@ -2284,13 +2284,13 @@
         <v>108200</v>
       </c>
       <c r="S13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V13" s="7">
         <v>567904</v>
@@ -2308,7 +2308,7 @@
         <v>42678</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -2322,40 +2322,40 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F14" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" t="s">
         <v>32</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>33</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>35</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
       </c>
       <c r="N14" s="3">
         <v>45832</v>
@@ -2373,13 +2373,13 @@
         <v>120100</v>
       </c>
       <c r="S14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V14" s="7">
         <v>567905</v>
@@ -2397,7 +2397,7 @@
         <v>42678</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB14" s="7">
         <v>1</v>
@@ -2411,40 +2411,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F15" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" t="s">
         <v>32</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>33</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>34</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>35</v>
-      </c>
-      <c r="M15" t="s">
-        <v>36</v>
       </c>
       <c r="N15" s="3">
         <v>45832</v>
@@ -2462,13 +2462,13 @@
         <v>132000</v>
       </c>
       <c r="S15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V15" s="7">
         <v>567906</v>
@@ -2486,7 +2486,7 @@
         <v>42678</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -2500,40 +2500,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="F16" s="3">
-        <v>45748</v>
+        <v>45848</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" t="s">
         <v>32</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>33</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>34</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>35</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
       </c>
       <c r="N16" s="3">
         <v>45832</v>
@@ -2551,13 +2551,13 @@
         <v>143900</v>
       </c>
       <c r="S16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="V16" s="7">
         <v>567907</v>
@@ -2575,7 +2575,7 @@
         <v>42678</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB16" s="7">
         <v>1</v>
@@ -2586,7 +2586,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Value entered is invalid. Enter valid value." sqref="J3:J16" xr:uid="{91619FFB-B786-44A4-BE3E-0028D4CE2B90}">
       <formula1>"LINE,TAX,FREIGHT,CHARGES"</formula1>
     </dataValidation>

--- a/Customer Invoice Conversion Data - RAW File.xlsx
+++ b/Customer Invoice Conversion Data - RAW File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894A7A69-218C-437F-99C5-8466A460E11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0494308-356A-4FA1-BE16-5DEB8020739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
   </bookViews>
@@ -754,13 +754,13 @@
     <t>*Buisness Unit Name</t>
   </si>
   <si>
+    <t>MILGARD EBS SPREADSHEET</t>
+  </si>
+  <si>
+    <t>NET 30</t>
+  </si>
+  <si>
     <t>*Transaction Batch Source Name</t>
-  </si>
-  <si>
-    <t>MILGARD EBS SPREADSHEET</t>
-  </si>
-  <si>
-    <t>NET 30</t>
   </si>
 </sst>
 </file>
@@ -1199,12 +1199,12 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
     <col min="2" max="2" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
@@ -1254,7 +1254,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3">
         <v>45848</v>
@@ -1432,13 +1432,13 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3">
         <v>45848</v>
@@ -1521,13 +1521,13 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3">
         <v>45848</v>
@@ -1610,13 +1610,13 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3">
         <v>45848</v>
@@ -1699,13 +1699,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3">
         <v>45848</v>
@@ -1788,13 +1788,13 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3">
         <v>45848</v>
@@ -1877,13 +1877,13 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3">
         <v>45848</v>
@@ -1966,13 +1966,13 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3">
         <v>45848</v>
@@ -2055,13 +2055,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3">
         <v>45848</v>
@@ -2144,13 +2144,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3">
         <v>45848</v>
@@ -2233,13 +2233,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3">
         <v>45848</v>
@@ -2322,13 +2322,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3">
         <v>45848</v>
@@ -2411,13 +2411,13 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3">
         <v>45848</v>
@@ -2500,13 +2500,13 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3">
         <v>45848</v>

--- a/Customer Invoice Conversion Data - RAW File.xlsx
+++ b/Customer Invoice Conversion Data - RAW File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0494308-356A-4FA1-BE16-5DEB8020739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053FF8D7-EF81-44C8-9929-404B353BB9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
   </bookViews>
@@ -679,9 +679,6 @@
     <t>850 Miter Shared Services BU</t>
   </si>
   <si>
-    <t>105 Invoice</t>
-  </si>
-  <si>
     <t>INV1009</t>
   </si>
   <si>
@@ -761,6 +758,9 @@
   </si>
   <si>
     <t>*Transaction Batch Source Name</t>
+  </si>
+  <si>
+    <t>110 Invoice</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0FE3C4-1949-47D2-8DC8-C393A1FB6F7F}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,33 +1228,33 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1343,40 +1343,40 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45848</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45848</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45848</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
       </c>
       <c r="N3" s="3">
         <v>45832</v>
@@ -1394,16 +1394,16 @@
         <v>1000</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V3" s="7">
-        <v>567894</v>
+        <v>56789401</v>
       </c>
       <c r="W3" s="7">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>42678</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1432,14 +1432,14 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" s="3">
         <v>45848</v>
       </c>
@@ -1447,25 +1447,25 @@
         <v>45848</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
       </c>
       <c r="N4" s="3">
         <v>45832</v>
@@ -1483,16 +1483,16 @@
         <v>1100</v>
       </c>
       <c r="S4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V4" s="7">
-        <v>567895</v>
+        <v>56789502</v>
       </c>
       <c r="W4" s="7">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>42678</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB4" s="7">
         <v>1</v>
@@ -1521,14 +1521,14 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
       <c r="E5" s="3">
         <v>45848</v>
       </c>
@@ -1536,25 +1536,25 @@
         <v>45848</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
       </c>
       <c r="N5" s="3">
         <v>45832</v>
@@ -1572,16 +1572,16 @@
         <v>13000</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V5" s="7">
-        <v>567896</v>
+        <v>56789603</v>
       </c>
       <c r="W5" s="7">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>42678</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1610,14 +1610,14 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
       <c r="E6" s="3">
         <v>45848</v>
       </c>
@@ -1625,25 +1625,25 @@
         <v>45848</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
       </c>
       <c r="N6" s="3">
         <v>45832</v>
@@ -1661,16 +1661,16 @@
         <v>24900</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V6" s="7">
-        <v>567897</v>
+        <v>56789704</v>
       </c>
       <c r="W6" s="7">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>42678</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="7">
         <v>1</v>
@@ -1699,14 +1699,14 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
       <c r="E7" s="3">
         <v>45848</v>
       </c>
@@ -1714,25 +1714,25 @@
         <v>45848</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
       </c>
       <c r="N7" s="3">
         <v>45832</v>
@@ -1750,16 +1750,16 @@
         <v>36800</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V7" s="7">
-        <v>567898</v>
+        <v>56789805</v>
       </c>
       <c r="W7" s="7">
         <v>1</v>
@@ -1774,7 +1774,7 @@
         <v>42678</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1788,14 +1788,14 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" s="3">
         <v>45848</v>
       </c>
@@ -1803,25 +1803,25 @@
         <v>45848</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
       </c>
       <c r="N8" s="3">
         <v>45832</v>
@@ -1839,16 +1839,16 @@
         <v>48700</v>
       </c>
       <c r="S8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V8" s="7">
-        <v>567899</v>
+        <v>56789906</v>
       </c>
       <c r="W8" s="7">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>42678</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="7">
         <v>1</v>
@@ -1877,14 +1877,14 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
       <c r="E9" s="3">
         <v>45848</v>
       </c>
@@ -1892,25 +1892,25 @@
         <v>45848</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>34</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
       </c>
       <c r="N9" s="3">
         <v>45832</v>
@@ -1928,16 +1928,16 @@
         <v>60600</v>
       </c>
       <c r="S9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V9" s="7">
-        <v>567900</v>
+        <v>56790007</v>
       </c>
       <c r="W9" s="7">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>42678</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1966,14 +1966,14 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
       <c r="E10" s="3">
         <v>45848</v>
       </c>
@@ -1981,25 +1981,25 @@
         <v>45848</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>34</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
       </c>
       <c r="N10" s="3">
         <v>45832</v>
@@ -2017,16 +2017,16 @@
         <v>72500</v>
       </c>
       <c r="S10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V10" s="7">
-        <v>567901</v>
+        <v>56790108</v>
       </c>
       <c r="W10" s="7">
         <v>1</v>
@@ -2041,7 +2041,7 @@
         <v>42678</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB10" s="7">
         <v>1</v>
@@ -2055,14 +2055,14 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
       <c r="E11" s="3">
         <v>45848</v>
       </c>
@@ -2070,25 +2070,25 @@
         <v>45848</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>32</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>33</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>34</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
       </c>
       <c r="N11" s="3">
         <v>45832</v>
@@ -2106,16 +2106,16 @@
         <v>84400</v>
       </c>
       <c r="S11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V11" s="7">
-        <v>567902</v>
+        <v>56790209</v>
       </c>
       <c r="W11" s="7">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>42678</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -2144,14 +2144,14 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
       <c r="E12" s="3">
         <v>45848</v>
       </c>
@@ -2159,25 +2159,25 @@
         <v>45848</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" t="s">
         <v>31</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>32</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>34</v>
-      </c>
-      <c r="M12" t="s">
-        <v>35</v>
       </c>
       <c r="N12" s="3">
         <v>45832</v>
@@ -2195,16 +2195,16 @@
         <v>96300</v>
       </c>
       <c r="S12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V12" s="7">
-        <v>567903</v>
+        <v>56790310</v>
       </c>
       <c r="W12" s="7">
         <v>1</v>
@@ -2219,7 +2219,7 @@
         <v>42678</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB12" s="7">
         <v>1</v>
@@ -2233,14 +2233,14 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" s="3">
         <v>45848</v>
       </c>
@@ -2248,25 +2248,25 @@
         <v>45848</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" t="s">
         <v>31</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>32</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>34</v>
-      </c>
-      <c r="M13" t="s">
-        <v>35</v>
       </c>
       <c r="N13" s="3">
         <v>45832</v>
@@ -2284,16 +2284,16 @@
         <v>108200</v>
       </c>
       <c r="S13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V13" s="7">
-        <v>567904</v>
+        <v>56790411</v>
       </c>
       <c r="W13" s="7">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>42678</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -2322,14 +2322,14 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
       <c r="E14" s="3">
         <v>45848</v>
       </c>
@@ -2337,25 +2337,25 @@
         <v>45848</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>32</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>34</v>
-      </c>
-      <c r="M14" t="s">
-        <v>35</v>
       </c>
       <c r="N14" s="3">
         <v>45832</v>
@@ -2373,16 +2373,16 @@
         <v>120100</v>
       </c>
       <c r="S14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V14" s="7">
-        <v>567905</v>
+        <v>56790512</v>
       </c>
       <c r="W14" s="7">
         <v>1</v>
@@ -2397,7 +2397,7 @@
         <v>42678</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB14" s="7">
         <v>1</v>
@@ -2411,14 +2411,14 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="3">
         <v>45848</v>
       </c>
@@ -2426,25 +2426,25 @@
         <v>45848</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>32</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>33</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>34</v>
-      </c>
-      <c r="M15" t="s">
-        <v>35</v>
       </c>
       <c r="N15" s="3">
         <v>45832</v>
@@ -2462,16 +2462,16 @@
         <v>132000</v>
       </c>
       <c r="S15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V15" s="7">
-        <v>567906</v>
+        <v>56790613</v>
       </c>
       <c r="W15" s="7">
         <v>1</v>
@@ -2486,7 +2486,7 @@
         <v>42678</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -2500,14 +2500,14 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
       <c r="E16" s="3">
         <v>45848</v>
       </c>
@@ -2515,25 +2515,25 @@
         <v>45848</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>32</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>33</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>34</v>
-      </c>
-      <c r="M16" t="s">
-        <v>35</v>
       </c>
       <c r="N16" s="3">
         <v>45832</v>
@@ -2551,16 +2551,16 @@
         <v>143900</v>
       </c>
       <c r="S16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V16" s="7">
-        <v>567907</v>
+        <v>56790714</v>
       </c>
       <c r="W16" s="7">
         <v>1</v>
@@ -2575,7 +2575,7 @@
         <v>42678</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB16" s="7">
         <v>1</v>

--- a/Customer Invoice Conversion Data - RAW File.xlsx
+++ b/Customer Invoice Conversion Data - RAW File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053FF8D7-EF81-44C8-9929-404B353BB9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A90241-E3CB-493D-A06B-BC163C416CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7270" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="55">
   <si>
     <t>*Transaction Type Name</t>
   </si>
@@ -679,15 +679,6 @@
     <t>850 Miter Shared Services BU</t>
   </si>
   <si>
-    <t>INV1009</t>
-  </si>
-  <si>
-    <t>12021</t>
-  </si>
-  <si>
-    <t>11046</t>
-  </si>
-  <si>
     <t>LINE</t>
   </si>
   <si>
@@ -709,45 +700,6 @@
     <t>Hard Code Value</t>
   </si>
   <si>
-    <t>INV1010</t>
-  </si>
-  <si>
-    <t>INV1011</t>
-  </si>
-  <si>
-    <t>INV1012</t>
-  </si>
-  <si>
-    <t>INV1013</t>
-  </si>
-  <si>
-    <t>INV1014</t>
-  </si>
-  <si>
-    <t>INV1015</t>
-  </si>
-  <si>
-    <t>INV1016</t>
-  </si>
-  <si>
-    <t>INV1017</t>
-  </si>
-  <si>
-    <t>INV1018</t>
-  </si>
-  <si>
-    <t>INV1019</t>
-  </si>
-  <si>
-    <t>INV1020</t>
-  </si>
-  <si>
-    <t>INV1021</t>
-  </si>
-  <si>
-    <t>INV1022</t>
-  </si>
-  <si>
     <t>*Buisness Unit Name</t>
   </si>
   <si>
@@ -761,6 +713,51 @@
   </si>
   <si>
     <t>110 Invoice</t>
+  </si>
+  <si>
+    <t>INV10009</t>
+  </si>
+  <si>
+    <t>INV10010</t>
+  </si>
+  <si>
+    <t>INV10011</t>
+  </si>
+  <si>
+    <t>INV10012</t>
+  </si>
+  <si>
+    <t>INV10013</t>
+  </si>
+  <si>
+    <t>INV10014</t>
+  </si>
+  <si>
+    <t>INV10015</t>
+  </si>
+  <si>
+    <t>INV10016</t>
+  </si>
+  <si>
+    <t>INV10017</t>
+  </si>
+  <si>
+    <t>INV10018</t>
+  </si>
+  <si>
+    <t>INV10019</t>
+  </si>
+  <si>
+    <t>INV10020</t>
+  </si>
+  <si>
+    <t>INV10021</t>
+  </si>
+  <si>
+    <t>INV10022</t>
+  </si>
+  <si>
+    <t>30008</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0FE3C4-1949-47D2-8DC8-C393A1FB6F7F}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,33 +1225,33 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1343,13 +1340,13 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <v>45848</v>
@@ -1358,25 +1355,25 @@
         <v>45848</v>
       </c>
       <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
       </c>
       <c r="N3" s="3">
         <v>45832</v>
@@ -1394,22 +1391,22 @@
         <v>1000</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V3" s="7">
-        <v>56789401</v>
+        <v>5678940001</v>
       </c>
       <c r="W3" s="7">
         <v>1</v>
       </c>
       <c r="X3" s="7">
-        <v>351</v>
+        <v>3511</v>
       </c>
       <c r="Y3" s="7">
         <v>1000</v>
@@ -1418,7 +1415,7 @@
         <v>42678</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1432,13 +1429,13 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3">
         <v>45848</v>
@@ -1447,25 +1444,25 @@
         <v>45848</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
       </c>
       <c r="N4" s="3">
         <v>45832</v>
@@ -1483,22 +1480,22 @@
         <v>1100</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V4" s="7">
-        <v>56789502</v>
+        <v>5678950002</v>
       </c>
       <c r="W4" s="7">
         <v>1</v>
       </c>
       <c r="X4" s="7">
-        <v>352</v>
+        <v>3522</v>
       </c>
       <c r="Y4" s="7">
         <v>1000</v>
@@ -1507,7 +1504,7 @@
         <v>42678</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="7">
         <v>1</v>
@@ -1521,13 +1518,13 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3">
         <v>45848</v>
@@ -1536,25 +1533,25 @@
         <v>45848</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="L5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
       </c>
       <c r="N5" s="3">
         <v>45832</v>
@@ -1572,22 +1569,22 @@
         <v>13000</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V5" s="7">
-        <v>56789603</v>
+        <v>5678960003</v>
       </c>
       <c r="W5" s="7">
         <v>1</v>
       </c>
       <c r="X5" s="7">
-        <v>353</v>
+        <v>3533</v>
       </c>
       <c r="Y5" s="7">
         <v>1000</v>
@@ -1596,7 +1593,7 @@
         <v>42678</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1610,13 +1607,13 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3">
         <v>45848</v>
@@ -1625,25 +1622,25 @@
         <v>45848</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="L6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
       </c>
       <c r="N6" s="3">
         <v>45832</v>
@@ -1661,22 +1658,22 @@
         <v>24900</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V6" s="7">
-        <v>56789704</v>
+        <v>5678970004</v>
       </c>
       <c r="W6" s="7">
         <v>1</v>
       </c>
       <c r="X6" s="7">
-        <v>354</v>
+        <v>3544</v>
       </c>
       <c r="Y6" s="7">
         <v>1000</v>
@@ -1685,7 +1682,7 @@
         <v>42678</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="7">
         <v>1</v>
@@ -1699,13 +1696,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3">
         <v>45848</v>
@@ -1714,25 +1711,25 @@
         <v>45848</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
       </c>
       <c r="N7" s="3">
         <v>45832</v>
@@ -1750,22 +1747,22 @@
         <v>36800</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V7" s="7">
-        <v>56789805</v>
+        <v>5678980005</v>
       </c>
       <c r="W7" s="7">
         <v>1</v>
       </c>
       <c r="X7" s="7">
-        <v>355</v>
+        <v>3555</v>
       </c>
       <c r="Y7" s="7">
         <v>1000</v>
@@ -1774,7 +1771,7 @@
         <v>42678</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1788,13 +1785,13 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>45848</v>
@@ -1803,25 +1800,25 @@
         <v>45848</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="L8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
       </c>
       <c r="N8" s="3">
         <v>45832</v>
@@ -1839,22 +1836,22 @@
         <v>48700</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V8" s="7">
-        <v>56789906</v>
+        <v>5678990006</v>
       </c>
       <c r="W8" s="7">
         <v>1</v>
       </c>
       <c r="X8" s="7">
-        <v>356</v>
+        <v>3566</v>
       </c>
       <c r="Y8" s="7">
         <v>1000</v>
@@ -1863,7 +1860,7 @@
         <v>42678</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB8" s="7">
         <v>1</v>
@@ -1877,13 +1874,13 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
         <v>45848</v>
@@ -1892,25 +1889,25 @@
         <v>45848</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
       </c>
       <c r="N9" s="3">
         <v>45832</v>
@@ -1928,22 +1925,22 @@
         <v>60600</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V9" s="7">
-        <v>56790007</v>
+        <v>5679000007</v>
       </c>
       <c r="W9" s="7">
         <v>1</v>
       </c>
       <c r="X9" s="7">
-        <v>357</v>
+        <v>3577</v>
       </c>
       <c r="Y9" s="7">
         <v>1000</v>
@@ -1952,7 +1949,7 @@
         <v>42678</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1966,13 +1963,13 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3">
         <v>45848</v>
@@ -1981,25 +1978,25 @@
         <v>45848</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>34</v>
       </c>
       <c r="N10" s="3">
         <v>45832</v>
@@ -2017,22 +2014,22 @@
         <v>72500</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V10" s="7">
-        <v>56790108</v>
+        <v>5679010008</v>
       </c>
       <c r="W10" s="7">
         <v>1</v>
       </c>
       <c r="X10" s="7">
-        <v>358</v>
+        <v>3588</v>
       </c>
       <c r="Y10" s="7">
         <v>1000</v>
@@ -2041,7 +2038,7 @@
         <v>42678</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB10" s="7">
         <v>1</v>
@@ -2055,13 +2052,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>45848</v>
@@ -2070,25 +2067,25 @@
         <v>45848</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="L11" t="s">
         <v>30</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>34</v>
       </c>
       <c r="N11" s="3">
         <v>45832</v>
@@ -2106,22 +2103,22 @@
         <v>84400</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V11" s="7">
-        <v>56790209</v>
+        <v>5679020009</v>
       </c>
       <c r="W11" s="7">
         <v>1</v>
       </c>
       <c r="X11" s="7">
-        <v>359</v>
+        <v>3599</v>
       </c>
       <c r="Y11" s="7">
         <v>1000</v>
@@ -2130,7 +2127,7 @@
         <v>42678</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -2144,13 +2141,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <v>45848</v>
@@ -2159,25 +2156,25 @@
         <v>45848</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="L12" t="s">
         <v>30</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
       </c>
       <c r="N12" s="3">
         <v>45832</v>
@@ -2195,22 +2192,22 @@
         <v>96300</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V12" s="7">
-        <v>56790310</v>
+        <v>5679030010</v>
       </c>
       <c r="W12" s="7">
         <v>1</v>
       </c>
       <c r="X12" s="7">
-        <v>360</v>
+        <v>3610</v>
       </c>
       <c r="Y12" s="7">
         <v>1000</v>
@@ -2219,7 +2216,7 @@
         <v>42678</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB12" s="7">
         <v>1</v>
@@ -2233,13 +2230,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3">
         <v>45848</v>
@@ -2248,25 +2245,25 @@
         <v>45848</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="L13" t="s">
         <v>30</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
       </c>
       <c r="N13" s="3">
         <v>45832</v>
@@ -2284,22 +2281,22 @@
         <v>108200</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V13" s="7">
-        <v>56790411</v>
+        <v>5679040011</v>
       </c>
       <c r="W13" s="7">
         <v>1</v>
       </c>
       <c r="X13" s="7">
-        <v>361</v>
+        <v>3621</v>
       </c>
       <c r="Y13" s="7">
         <v>1000</v>
@@ -2308,7 +2305,7 @@
         <v>42678</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -2322,13 +2319,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
         <v>45848</v>
@@ -2337,25 +2334,25 @@
         <v>45848</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="L14" t="s">
         <v>30</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" t="s">
-        <v>34</v>
       </c>
       <c r="N14" s="3">
         <v>45832</v>
@@ -2373,22 +2370,22 @@
         <v>120100</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V14" s="7">
-        <v>56790512</v>
+        <v>5679050012</v>
       </c>
       <c r="W14" s="7">
         <v>1</v>
       </c>
       <c r="X14" s="7">
-        <v>362</v>
+        <v>3632</v>
       </c>
       <c r="Y14" s="7">
         <v>1000</v>
@@ -2397,7 +2394,7 @@
         <v>42678</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AB14" s="7">
         <v>1</v>
@@ -2411,40 +2408,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45848</v>
+      </c>
+      <c r="G15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45848</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45848</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="L15" t="s">
         <v>30</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" t="s">
-        <v>34</v>
       </c>
       <c r="N15" s="3">
         <v>45832</v>
@@ -2462,22 +2459,22 @@
         <v>132000</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T15">
         <v>1</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V15" s="7">
-        <v>56790613</v>
+        <v>5679060013</v>
       </c>
       <c r="W15" s="7">
         <v>1</v>
       </c>
       <c r="X15" s="7">
-        <v>363</v>
+        <v>3643</v>
       </c>
       <c r="Y15" s="7">
         <v>1000</v>
@@ -2486,7 +2483,7 @@
         <v>42678</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -2500,40 +2497,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45848</v>
+      </c>
+      <c r="G16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="3">
-        <v>45848</v>
-      </c>
-      <c r="F16" s="3">
-        <v>45848</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="4">
+        <v>2669</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="L16" t="s">
         <v>30</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>31</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" t="s">
-        <v>34</v>
       </c>
       <c r="N16" s="3">
         <v>45832</v>
@@ -2551,22 +2548,22 @@
         <v>143900</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V16" s="7">
-        <v>56790714</v>
+        <v>5679070014</v>
       </c>
       <c r="W16" s="7">
         <v>1</v>
       </c>
       <c r="X16" s="7">
-        <v>364</v>
+        <v>3654</v>
       </c>
       <c r="Y16" s="7">
         <v>1000</v>
@@ -2575,7 +2572,7 @@
         <v>42678</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AB16" s="7">
         <v>1</v>
@@ -2586,13 +2583,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Value entered is invalid. Enter valid value." sqref="J3:J16" xr:uid="{91619FFB-B786-44A4-BE3E-0028D4CE2B90}">
       <formula1>"LINE,TAX,FREIGHT,CHARGES"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" errorTitle="Invalid value" error="Value entered is invalid. Enter valid value." sqref="J2" xr:uid="{AF7F89E6-8909-4AED-8FCB-A6EE5EF7FC7D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Customer Invoice Conversion Data - RAW File.xlsx
+++ b/Customer Invoice Conversion Data - RAW File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A90241-E3CB-493D-A06B-BC163C416CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF5717-20EE-49FF-B77C-D4C4E55AC275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7270" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
+    <workbookView xWindow="3480" yWindow="1210" windowWidth="14400" windowHeight="7270" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0FE3C4-1949-47D2-8DC8-C393A1FB6F7F}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G16"/>
+    <sheetView tabSelected="1" topLeftCell="V14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1400,13 +1400,13 @@
         <v>33</v>
       </c>
       <c r="V3" s="7">
-        <v>5678940001</v>
+        <v>5678940021</v>
       </c>
       <c r="W3" s="7">
         <v>1</v>
       </c>
       <c r="X3" s="7">
-        <v>3511</v>
+        <v>35111</v>
       </c>
       <c r="Y3" s="7">
         <v>1000</v>
@@ -1489,13 +1489,13 @@
         <v>33</v>
       </c>
       <c r="V4" s="7">
-        <v>5678950002</v>
+        <v>5678950022</v>
       </c>
       <c r="W4" s="7">
         <v>1</v>
       </c>
       <c r="X4" s="7">
-        <v>3522</v>
+        <v>35222</v>
       </c>
       <c r="Y4" s="7">
         <v>1000</v>
@@ -1578,13 +1578,13 @@
         <v>33</v>
       </c>
       <c r="V5" s="7">
-        <v>5678960003</v>
+        <v>5678960023</v>
       </c>
       <c r="W5" s="7">
         <v>1</v>
       </c>
       <c r="X5" s="7">
-        <v>3533</v>
+        <v>35333</v>
       </c>
       <c r="Y5" s="7">
         <v>1000</v>
@@ -1667,13 +1667,13 @@
         <v>33</v>
       </c>
       <c r="V6" s="7">
-        <v>5678970004</v>
+        <v>5678970024</v>
       </c>
       <c r="W6" s="7">
         <v>1</v>
       </c>
       <c r="X6" s="7">
-        <v>3544</v>
+        <v>35444</v>
       </c>
       <c r="Y6" s="7">
         <v>1000</v>
@@ -1756,13 +1756,13 @@
         <v>33</v>
       </c>
       <c r="V7" s="7">
-        <v>5678980005</v>
+        <v>5678980025</v>
       </c>
       <c r="W7" s="7">
         <v>1</v>
       </c>
       <c r="X7" s="7">
-        <v>3555</v>
+        <v>35555</v>
       </c>
       <c r="Y7" s="7">
         <v>1000</v>
@@ -1845,13 +1845,13 @@
         <v>33</v>
       </c>
       <c r="V8" s="7">
-        <v>5678990006</v>
+        <v>5678990026</v>
       </c>
       <c r="W8" s="7">
         <v>1</v>
       </c>
       <c r="X8" s="7">
-        <v>3566</v>
+        <v>35666</v>
       </c>
       <c r="Y8" s="7">
         <v>1000</v>
@@ -1934,13 +1934,13 @@
         <v>33</v>
       </c>
       <c r="V9" s="7">
-        <v>5679000007</v>
+        <v>5679000027</v>
       </c>
       <c r="W9" s="7">
         <v>1</v>
       </c>
       <c r="X9" s="7">
-        <v>3577</v>
+        <v>35777</v>
       </c>
       <c r="Y9" s="7">
         <v>1000</v>
@@ -2023,13 +2023,13 @@
         <v>33</v>
       </c>
       <c r="V10" s="7">
-        <v>5679010008</v>
+        <v>5679010028</v>
       </c>
       <c r="W10" s="7">
         <v>1</v>
       </c>
       <c r="X10" s="7">
-        <v>3588</v>
+        <v>35888</v>
       </c>
       <c r="Y10" s="7">
         <v>1000</v>
@@ -2112,13 +2112,13 @@
         <v>33</v>
       </c>
       <c r="V11" s="7">
-        <v>5679020009</v>
+        <v>5679020029</v>
       </c>
       <c r="W11" s="7">
         <v>1</v>
       </c>
       <c r="X11" s="7">
-        <v>3599</v>
+        <v>35999</v>
       </c>
       <c r="Y11" s="7">
         <v>1000</v>
@@ -2201,13 +2201,13 @@
         <v>33</v>
       </c>
       <c r="V12" s="7">
-        <v>5679030010</v>
+        <v>5679030030</v>
       </c>
       <c r="W12" s="7">
         <v>1</v>
       </c>
       <c r="X12" s="7">
-        <v>3610</v>
+        <v>36110</v>
       </c>
       <c r="Y12" s="7">
         <v>1000</v>
@@ -2290,13 +2290,13 @@
         <v>33</v>
       </c>
       <c r="V13" s="7">
-        <v>5679040011</v>
+        <v>5679040031</v>
       </c>
       <c r="W13" s="7">
         <v>1</v>
       </c>
       <c r="X13" s="7">
-        <v>3621</v>
+        <v>36221</v>
       </c>
       <c r="Y13" s="7">
         <v>1000</v>
@@ -2379,13 +2379,13 @@
         <v>33</v>
       </c>
       <c r="V14" s="7">
-        <v>5679050012</v>
+        <v>5679050032</v>
       </c>
       <c r="W14" s="7">
         <v>1</v>
       </c>
       <c r="X14" s="7">
-        <v>3632</v>
+        <v>36332</v>
       </c>
       <c r="Y14" s="7">
         <v>1000</v>
@@ -2468,13 +2468,13 @@
         <v>33</v>
       </c>
       <c r="V15" s="7">
-        <v>5679060013</v>
+        <v>5679060033</v>
       </c>
       <c r="W15" s="7">
         <v>1</v>
       </c>
       <c r="X15" s="7">
-        <v>3643</v>
+        <v>36443</v>
       </c>
       <c r="Y15" s="7">
         <v>1000</v>
@@ -2557,13 +2557,13 @@
         <v>33</v>
       </c>
       <c r="V16" s="7">
-        <v>5679070014</v>
+        <v>5679070034</v>
       </c>
       <c r="W16" s="7">
         <v>1</v>
       </c>
       <c r="X16" s="7">
-        <v>3654</v>
+        <v>36554</v>
       </c>
       <c r="Y16" s="7">
         <v>1000</v>

--- a/Customer Invoice Conversion Data - RAW File.xlsx
+++ b/Customer Invoice Conversion Data - RAW File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MigrationTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\p2\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF5717-20EE-49FF-B77C-D4C4E55AC275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9194D32A-E6A1-4545-8712-3F62813CB36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1210" windowWidth="14400" windowHeight="7270" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
+    <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BFD25A4A-A216-4608-A87F-DFEBB0A86C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0FE3C4-1949-47D2-8DC8-C393A1FB6F7F}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X16"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T3" sqref="A3:AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
